--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,24 +46,24 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
@@ -73,16 +73,16 @@
     <t>small</t>
   </si>
   <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>apart</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>ok</t>
@@ -91,16 +91,19 @@
     <t>thought</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
+    <t>size</t>
+  </si>
+  <si>
     <t>though</t>
   </si>
   <si>
-    <t>size</t>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>item</t>
   </si>
   <si>
     <t>work</t>
@@ -109,66 +112,48 @@
     <t>would</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
     <t>money</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>hard</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
+    <t>favorite</t>
   </si>
   <si>
     <t>classic</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
@@ -184,10 +169,10 @@
     <t>loves</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
   </si>
   <si>
     <t>friends</t>
@@ -557,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,10 +550,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,13 +611,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,19 +629,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K3">
-        <v>0.8615384615384616</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -668,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -697,16 +682,16 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>0.8571428571428571</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -718,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -726,13 +711,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7688172043010753</v>
+        <v>0.8125</v>
       </c>
       <c r="C5">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="D5">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -744,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>0.6792452830188679</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="L5">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="M5">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -768,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -776,13 +761,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.75</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -794,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K6">
-        <v>0.6666666666666666</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L6">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -818,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,13 +811,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7281553398058253</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C7">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="D7">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -844,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>0.5</v>
+        <v>0.578125</v>
       </c>
       <c r="L7">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M7">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -868,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -876,13 +861,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7183098591549296</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="C8">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="D8">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -894,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>0.4347826086956522</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -918,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -926,13 +911,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6621621621621622</v>
+        <v>0.7475728155339806</v>
       </c>
       <c r="C9">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="D9">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -944,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K9">
-        <v>0.3811475409836065</v>
+        <v>0.3877049180327869</v>
       </c>
       <c r="L9">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="M9">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -976,13 +961,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6296296296296297</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C10">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="D10">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -994,19 +979,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>0.3170731707317073</v>
+        <v>0.3328550932568149</v>
       </c>
       <c r="L10">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="M10">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1018,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>476</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1047,16 +1032,16 @@
         <v>47</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>0.2946058091286307</v>
+        <v>0.2966804979253112</v>
       </c>
       <c r="L11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1068,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1076,13 +1061,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5272727272727272</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1094,19 +1079,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K12">
-        <v>0.2168674698795181</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="L12">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="M12">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1118,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>130</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1126,13 +1111,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5072463768115942</v>
+        <v>0.4753623188405797</v>
       </c>
       <c r="C13">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D13">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1144,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K13">
-        <v>0.1957186544342508</v>
+        <v>0.2349397590361446</v>
       </c>
       <c r="L13">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="M13">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1168,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>263</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1176,13 +1161,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4939759036144578</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="C14">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D14">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1194,19 +1179,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>0.164021164021164</v>
+        <v>0.1798941798941799</v>
       </c>
       <c r="L14">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M14">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1218,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1226,13 +1211,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4881889763779528</v>
+        <v>0.4488188976377953</v>
       </c>
       <c r="C15">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D15">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1244,31 +1229,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>0.1131578947368421</v>
+        <v>0.1113058720420684</v>
       </c>
       <c r="L15">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M15">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N15">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1011</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1276,13 +1261,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4603174603174603</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1294,31 +1279,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K16">
-        <v>0.05</v>
+        <v>0.05523066926575698</v>
       </c>
       <c r="L16">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="M16">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="N16">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O16">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>1463</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1326,13 +1311,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4315789473684211</v>
+        <v>0.3595505617977528</v>
       </c>
       <c r="C17">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1344,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1352,13 +1337,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3984375</v>
+        <v>0.3515625</v>
       </c>
       <c r="C18">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D18">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1370,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1378,13 +1363,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3465346534653465</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="C19">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D19">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1396,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1404,13 +1389,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3370786516853932</v>
+        <v>0.3080568720379147</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1422,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>59</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1430,13 +1415,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3127962085308057</v>
+        <v>0.2835051546391752</v>
       </c>
       <c r="C21">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D21">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1448,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1456,13 +1441,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2905982905982906</v>
+        <v>0.2735042735042735</v>
       </c>
       <c r="C22">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D22">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1474,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1482,13 +1467,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2731958762886598</v>
+        <v>0.22</v>
       </c>
       <c r="C23">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D23">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1500,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1508,13 +1493,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2373417721518987</v>
+        <v>0.2101449275362319</v>
       </c>
       <c r="C24">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D24">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1526,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>241</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1534,13 +1519,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.21513353115727</v>
+        <v>0.2056962025316456</v>
       </c>
       <c r="C25">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="D25">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1552,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>529</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1560,13 +1545,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2101910828025478</v>
+        <v>0.2032640949554896</v>
       </c>
       <c r="C26">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="D26">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1578,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>124</v>
+        <v>537</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1586,13 +1571,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2071428571428572</v>
+        <v>0.1993670886075949</v>
       </c>
       <c r="C27">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D27">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1604,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>111</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1612,13 +1597,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2056962025316456</v>
+        <v>0.1635514018691589</v>
       </c>
       <c r="C28">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D28">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1630,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>251</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1638,25 +1623,25 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2</v>
+        <v>0.1556195965417868</v>
       </c>
       <c r="C29">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D29">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>140</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1664,13 +1649,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1884057971014493</v>
+        <v>0.1431718061674009</v>
       </c>
       <c r="C30">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D30">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1682,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>224</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1690,13 +1675,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.17</v>
+        <v>0.1235955056179775</v>
       </c>
       <c r="C31">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1708,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>166</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1716,13 +1701,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1674008810572687</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="C32">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="D32">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1734,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>378</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1742,25 +1727,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.146551724137931</v>
+        <v>0.08401976935749589</v>
       </c>
       <c r="C33">
         <v>51</v>
       </c>
       <c r="D33">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>297</v>
+        <v>556</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1768,25 +1753,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.125</v>
+        <v>0.07476635514018691</v>
       </c>
       <c r="C34">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D34">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>217</v>
+        <v>396</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1794,155 +1779,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1165413533834586</v>
+        <v>0.07349665924276169</v>
       </c>
       <c r="C35">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D35">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E35">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.09340659340659341</v>
-      </c>
-      <c r="C36">
-        <v>34</v>
-      </c>
-      <c r="D36">
-        <v>35</v>
-      </c>
-      <c r="E36">
-        <v>0.03</v>
-      </c>
-      <c r="F36">
-        <v>0.97</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.08732394366197183</v>
-      </c>
-      <c r="C37">
-        <v>31</v>
-      </c>
-      <c r="D37">
-        <v>31</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>0.07920792079207921</v>
-      </c>
-      <c r="C38">
-        <v>48</v>
-      </c>
-      <c r="D38">
-        <v>50</v>
-      </c>
-      <c r="E38">
-        <v>0.04</v>
-      </c>
-      <c r="F38">
-        <v>0.96</v>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0.06473214285714286</v>
-      </c>
-      <c r="C39">
-        <v>29</v>
-      </c>
-      <c r="D39">
-        <v>30</v>
-      </c>
-      <c r="E39">
-        <v>0.03</v>
-      </c>
-      <c r="F39">
-        <v>0.97</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40">
-        <v>0.03914141414141414</v>
-      </c>
-      <c r="C40">
-        <v>31</v>
-      </c>
-      <c r="D40">
-        <v>33</v>
-      </c>
-      <c r="E40">
-        <v>0.06</v>
-      </c>
-      <c r="F40">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>761</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
